--- a/data/trans_dic/P36$fruta-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Provincia-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02425019767025154</v>
+        <v>0.02546769216920838</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09174132677414908</v>
+        <v>0.08712970045276766</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06555889696334734</v>
+        <v>0.0637225543230885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02400059451467213</v>
+        <v>0.02397444592873949</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09855071134320999</v>
+        <v>0.1022898117498154</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08074232316618868</v>
+        <v>0.0776161180221167</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02991864059119414</v>
+        <v>0.03244870249519293</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1023593108320022</v>
+        <v>0.1039149838541566</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08323358348858256</v>
+        <v>0.08045755210642744</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07581432327107474</v>
+        <v>0.07700151571927069</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1690945835174856</v>
+        <v>0.1694161259245325</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1436293731449509</v>
+        <v>0.1379406190022523</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08280217494758124</v>
+        <v>0.07851118858310872</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1877978074671217</v>
+        <v>0.1901675687636088</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1577764042672643</v>
+        <v>0.1562884726323151</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06735147690789632</v>
+        <v>0.06935710253692783</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1620841522558418</v>
+        <v>0.1673654959433209</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1330443517555329</v>
+        <v>0.1338137637996782</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.10678418517203</v>
+        <v>0.1058996954936705</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09645164492897751</v>
+        <v>0.09482868614453409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07642163844180454</v>
+        <v>0.07558576082145407</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1120513692135992</v>
+        <v>0.1116256427093339</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05611489634706345</v>
+        <v>0.05584265965601808</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08312395627958105</v>
+        <v>0.08045853027328533</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1180420554677327</v>
+        <v>0.1182163817432205</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08272678009701495</v>
+        <v>0.08120679532291167</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0880934152837968</v>
+        <v>0.08671649992965438</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1720152873302435</v>
+        <v>0.1715653466054192</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1584866842484773</v>
+        <v>0.1571625475790012</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1308489042715337</v>
+        <v>0.131008394645703</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1740052981833544</v>
+        <v>0.1714399328786186</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1030172992144861</v>
+        <v>0.1045498782808862</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1385808878802778</v>
+        <v>0.1385006838912588</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1621960989352784</v>
+        <v>0.1638961431133196</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1226660563446875</v>
+        <v>0.1217333288780812</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1278647758953111</v>
+        <v>0.1260345715483821</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02607339978353931</v>
+        <v>0.02724644872946447</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06464606112904221</v>
+        <v>0.06371500358321999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06921455248496079</v>
+        <v>0.07148589310479531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06993346229177526</v>
+        <v>0.07344469802444233</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1157599861345509</v>
+        <v>0.1176936885030131</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07154842173588308</v>
+        <v>0.06889620872257145</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05672324249853771</v>
+        <v>0.05447782808427167</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09858707529239644</v>
+        <v>0.1003178686517732</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07846689008099042</v>
+        <v>0.07796792216813145</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07656992026411957</v>
+        <v>0.07799626078868795</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1294695753967505</v>
+        <v>0.128708342614216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1364871642260423</v>
+        <v>0.1389057626490807</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1381095868207718</v>
+        <v>0.1371166874237068</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1947561788802917</v>
+        <v>0.1975409810398138</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1371425263115647</v>
+        <v>0.133585488984196</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09755189689105112</v>
+        <v>0.09744133420371635</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1517388384987806</v>
+        <v>0.1526989256589155</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1237070492425614</v>
+        <v>0.1235723842459889</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03642887503771965</v>
+        <v>0.03541777505051887</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07580309682243547</v>
+        <v>0.07678192908534119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1153738273189612</v>
+        <v>0.1164485666499131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08377071864566432</v>
+        <v>0.08488841458840338</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08787125520828797</v>
+        <v>0.08841397480826482</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07647086993210923</v>
+        <v>0.07980293925772967</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06660571775984606</v>
+        <v>0.06773642161425203</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09031672213090682</v>
+        <v>0.08987564460376285</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1033732762561871</v>
+        <v>0.1043526961041604</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08720394289362216</v>
+        <v>0.0856918999640474</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1435560142873331</v>
+        <v>0.1431416810176673</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1935291729989505</v>
+        <v>0.1938897180572664</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1454449017348212</v>
+        <v>0.1494662637683739</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1565615327458585</v>
+        <v>0.155734970785341</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1420724817522076</v>
+        <v>0.1406061353474211</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1089656889626197</v>
+        <v>0.1075382810430165</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1403592436775932</v>
+        <v>0.137726151262728</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1540271017469234</v>
+        <v>0.1555891451284723</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01882188622550715</v>
+        <v>0.01802529972388424</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0376349392786085</v>
+        <v>0.03612869548946088</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08449722863821997</v>
+        <v>0.09080358769057255</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01461923845367876</v>
+        <v>0.01409216138297946</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03945619239803875</v>
+        <v>0.03979842389909185</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0919989518336312</v>
+        <v>0.09690046719582913</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0244009639705198</v>
+        <v>0.02377820066428115</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0464515982653288</v>
+        <v>0.04692717269224335</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1006913501465781</v>
+        <v>0.1015536037339152</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07791115449812673</v>
+        <v>0.07725225947716521</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.105559907734835</v>
+        <v>0.1074492266923026</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1804566357526909</v>
+        <v>0.1879095972154654</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07598778258682919</v>
+        <v>0.06975299490306854</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.110315434558114</v>
+        <v>0.1124036042570382</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1793985840810584</v>
+        <v>0.1902404805557774</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06446186793063949</v>
+        <v>0.06422694630079744</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09573095376564522</v>
+        <v>0.09510836296011867</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1645413237846604</v>
+        <v>0.1678662572709784</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01423182663179025</v>
+        <v>0.0144690263698533</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06952631685524398</v>
+        <v>0.07140032511089604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1000962505270549</v>
+        <v>0.1008613684276098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07837108260062906</v>
+        <v>0.07997879993331437</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1136091962650087</v>
+        <v>0.1137661107223192</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1060641418743946</v>
+        <v>0.1033279301095783</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05529514644704265</v>
+        <v>0.05280751445627972</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1018512040029475</v>
+        <v>0.1026046711610864</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1141410059322928</v>
+        <v>0.112884403437185</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05705393926508912</v>
+        <v>0.05909815827833948</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1514408674363365</v>
+        <v>0.1486398349918026</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1818080745576787</v>
+        <v>0.1890483932310119</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1519798324743838</v>
+        <v>0.1551507052395553</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.195429821731188</v>
+        <v>0.2018424908782033</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1871218780462363</v>
+        <v>0.188629064982972</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1006210304803421</v>
+        <v>0.09667095736127469</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1603749951961937</v>
+        <v>0.1597572396230196</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1750739190134142</v>
+        <v>0.17285603502486</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06254412256517038</v>
+        <v>0.06477069039766672</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1180966631048397</v>
+        <v>0.1178100976282588</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1448981753491355</v>
+        <v>0.1455126730726772</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1216959456297215</v>
+        <v>0.1227242173879085</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1464519017058176</v>
+        <v>0.1445105172672902</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1504009047636556</v>
+        <v>0.1499935698769889</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1001744381178229</v>
+        <v>0.09932350321225897</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1400473127166353</v>
+        <v>0.1404212315321687</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1561185609112186</v>
+        <v>0.1573857585250647</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1113875492066561</v>
+        <v>0.1120346555091635</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1798200927725065</v>
+        <v>0.1782031648713472</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2100142055271315</v>
+        <v>0.208335489225413</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1790637517827021</v>
+        <v>0.1807695443516129</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2057569643118781</v>
+        <v>0.2057865850468866</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2105382208594184</v>
+        <v>0.2099924240568306</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1393779738910919</v>
+        <v>0.1362607452614353</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1847467516341405</v>
+        <v>0.1839743905879239</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1987987828347871</v>
+        <v>0.2001131996267817</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08323794347487819</v>
+        <v>0.08403893834428884</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1085049184022715</v>
+        <v>0.1062252880874286</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09922693051832079</v>
+        <v>0.09936836084185133</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.06424258194157177</v>
+        <v>0.06553367461907759</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0888874574951974</v>
+        <v>0.08719433208133005</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1155388951749846</v>
+        <v>0.1160357735720789</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08073812151956138</v>
+        <v>0.0812157461021724</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.105224970295613</v>
+        <v>0.1046561340632846</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1140132682227944</v>
+        <v>0.1133922844419965</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1333097198980645</v>
+        <v>0.1311412356406199</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1566690036935197</v>
+        <v>0.1578960621637384</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1488933078488733</v>
+        <v>0.1453462413388332</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1073659337088246</v>
+        <v>0.1054824240947105</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1351637369874909</v>
+        <v>0.1358830122124019</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1655367043927189</v>
+        <v>0.1648926407860508</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1105693517968605</v>
+        <v>0.1133205082481554</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1395030872744316</v>
+        <v>0.137989021794668</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1482625261263984</v>
+        <v>0.1474076205365267</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07145092058494967</v>
+        <v>0.07177480802654362</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1094068521056802</v>
+        <v>0.1080398513758748</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1185263092814241</v>
+        <v>0.1187000819599688</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.0956539817037276</v>
+        <v>0.09502296210320423</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1145804133039304</v>
+        <v>0.1138862003627599</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1217813895565747</v>
+        <v>0.121547263908016</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.08650196272691862</v>
+        <v>0.08698712821836836</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1154288641136289</v>
+        <v>0.1150992488572606</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1245082466286633</v>
+        <v>0.1236173260227487</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.09102700855034014</v>
+        <v>0.09133421457372747</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1327571014362802</v>
+        <v>0.1318619456810869</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1409615001552084</v>
+        <v>0.1421746227573321</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.117148927162351</v>
+        <v>0.1173653266526122</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1372820599740808</v>
+        <v>0.1376475222886472</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.14368836438545</v>
+        <v>0.1448676133478753</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1005334747727446</v>
+        <v>0.101472852058929</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1323077655867411</v>
+        <v>0.1309867823851373</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1407880288969757</v>
+        <v>0.1395164610491213</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6578</v>
+        <v>6908</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27040</v>
+        <v>25680</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19259</v>
+        <v>18719</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6235</v>
+        <v>6228</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28216</v>
+        <v>29286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23311</v>
+        <v>22408</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15887</v>
+        <v>17230</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>59475</v>
+        <v>60379</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>48481</v>
+        <v>46864</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20564</v>
+        <v>20886</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>49839</v>
+        <v>49933</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>42193</v>
+        <v>40522</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21509</v>
+        <v>20394</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>53768</v>
+        <v>54446</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45551</v>
+        <v>45121</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>35764</v>
+        <v>36829</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>94178</v>
+        <v>97247</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>77494</v>
+        <v>77942</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52541</v>
+        <v>52106</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>48659</v>
+        <v>47840</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38241</v>
+        <v>37822</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>56468</v>
+        <v>56254</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>29277</v>
+        <v>29135</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>43481</v>
+        <v>42087</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>117568</v>
+        <v>117742</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>84896</v>
+        <v>83337</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>90161</v>
+        <v>88752</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>84637</v>
+        <v>84416</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>79954</v>
+        <v>79286</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>65475</v>
+        <v>65555</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>87690</v>
+        <v>86397</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>53748</v>
+        <v>54548</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>72489</v>
+        <v>72447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>161545</v>
+        <v>163238</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>125883</v>
+        <v>124926</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>130866</v>
+        <v>128993</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8313</v>
+        <v>8687</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20889</v>
+        <v>20588</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22049</v>
+        <v>22773</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23457</v>
+        <v>24634</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>39476</v>
+        <v>40136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24062</v>
+        <v>23170</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37112</v>
+        <v>35643</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>65477</v>
+        <v>66626</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>51386</v>
+        <v>51059</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24414</v>
+        <v>24869</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>41836</v>
+        <v>41590</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43480</v>
+        <v>44251</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>46324</v>
+        <v>45991</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>66416</v>
+        <v>67365</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>46122</v>
+        <v>44926</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>63824</v>
+        <v>63752</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>100777</v>
+        <v>101415</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>81013</v>
+        <v>80924</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13030</v>
+        <v>12669</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28267</v>
+        <v>28632</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>42684</v>
+        <v>43082</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31117</v>
+        <v>31532</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>34178</v>
+        <v>34389</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29616</v>
+        <v>30906</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>48565</v>
+        <v>49390</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>68808</v>
+        <v>68472</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>78279</v>
+        <v>79021</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31192</v>
+        <v>30651</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53532</v>
+        <v>53377</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71599</v>
+        <v>71732</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>54026</v>
+        <v>55520</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>60895</v>
+        <v>60573</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>55022</v>
+        <v>54454</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>79452</v>
+        <v>78411</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>106933</v>
+        <v>104927</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>116637</v>
+        <v>117819</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3810</v>
+        <v>3648</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8002</v>
+        <v>7682</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17848</v>
+        <v>19180</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3021</v>
+        <v>2912</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>8664</v>
+        <v>8739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20110</v>
+        <v>21181</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9982</v>
+        <v>9727</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20077</v>
+        <v>20282</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>43278</v>
+        <v>43649</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15770</v>
+        <v>15637</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22444</v>
+        <v>22846</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38116</v>
+        <v>39690</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>15704</v>
+        <v>14416</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24224</v>
+        <v>24683</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>39214</v>
+        <v>41584</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>26370</v>
+        <v>26274</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>41376</v>
+        <v>41107</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>70721</v>
+        <v>72150</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3854</v>
+        <v>3918</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>19049</v>
+        <v>19562</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>26338</v>
+        <v>26539</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21798</v>
+        <v>22246</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>31697</v>
+        <v>31740</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>28841</v>
+        <v>28097</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>30355</v>
+        <v>28989</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>56321</v>
+        <v>56738</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>61070</v>
+        <v>60398</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15451</v>
+        <v>16004</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>41492</v>
+        <v>40724</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>47838</v>
+        <v>49743</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>42272</v>
+        <v>43154</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>54524</v>
+        <v>56313</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>50882</v>
+        <v>51292</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>55236</v>
+        <v>53068</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>88684</v>
+        <v>88342</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>93672</v>
+        <v>92486</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>38339</v>
+        <v>39704</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>78273</v>
+        <v>78083</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>94875</v>
+        <v>95278</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>77431</v>
+        <v>78085</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>101616</v>
+        <v>100269</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>103662</v>
+        <v>103381</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>125144</v>
+        <v>124081</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>189994</v>
+        <v>190501</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>209825</v>
+        <v>211528</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>68280</v>
+        <v>68676</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>119183</v>
+        <v>118111</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>137512</v>
+        <v>136412</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>113933</v>
+        <v>115018</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>142765</v>
+        <v>142786</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>145111</v>
+        <v>144734</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>174119</v>
+        <v>170225</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>250635</v>
+        <v>249587</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>267187</v>
+        <v>268954</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>61912</v>
+        <v>62508</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>84226</v>
+        <v>82456</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>77256</v>
+        <v>77367</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>50335</v>
+        <v>51346</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>73041</v>
+        <v>71650</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>95454</v>
+        <v>95865</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>123312</v>
+        <v>124041</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>168146</v>
+        <v>167237</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>182963</v>
+        <v>181966</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>99155</v>
+        <v>97542</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>121612</v>
+        <v>122565</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>115926</v>
+        <v>113164</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>84122</v>
+        <v>82647</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>111068</v>
+        <v>111659</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>136761</v>
+        <v>136229</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>168873</v>
+        <v>173075</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>222921</v>
+        <v>220502</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>237924</v>
+        <v>236552</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>233631</v>
+        <v>234690</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>374267</v>
+        <v>369591</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>401849</v>
+        <v>402438</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>322849</v>
+        <v>320719</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>407011</v>
+        <v>404545</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>431263</v>
+        <v>430434</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>574805</v>
+        <v>578029</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>804893</v>
+        <v>802594</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>863050</v>
+        <v>856875</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>297642</v>
+        <v>298646</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>454146</v>
+        <v>451083</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>477913</v>
+        <v>482026</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>395398</v>
+        <v>396128</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>487651</v>
+        <v>488949</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>508842</v>
+        <v>513018</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>668044</v>
+        <v>674286</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>922590</v>
+        <v>913379</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>975896</v>
+        <v>967082</v>
       </c>
     </row>
     <row r="40">
